--- a/MJ808 clone - all driver- POC - BOM.xlsx
+++ b/MJ808 clone - all driver- POC - BOM.xlsx
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="H35" sqref="H35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,10 +2054,10 @@
       <c r="F35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
     <hyperlink ref="I32" r:id="rId29"/>
     <hyperlink ref="I19" r:id="rId30"/>
     <hyperlink ref="I20" r:id="rId31"/>
-    <hyperlink ref="H35" r:id="rId32"/>
+    <hyperlink ref="I35" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MJ808 clone - all driver- POC - BOM.xlsx
+++ b/MJ808 clone - all driver- POC - BOM.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="96" yWindow="12" windowWidth="16128" windowHeight="6468"/>
   </bookViews>
   <sheets>
-    <sheet name="MJ808 clone - all driver- POC -" sheetId="1" r:id="rId1"/>
+    <sheet name="MJ808 clone - all driver- POC" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
   <si>
     <t>Part</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MPN</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -64,12 +58,6 @@
     <t>C6</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>C-EUC0805</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>DFN10</t>
   </si>
   <si>
-    <t>IC7</t>
-  </si>
-  <si>
     <t>MAX16820</t>
   </si>
   <si>
@@ -175,18 +160,9 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>LEDCHIP-LED0805</t>
-  </si>
-  <si>
     <t>CHIP-LED0805</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -256,54 +232,27 @@
     <t>R1210</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>R-EU_R0805</t>
   </si>
   <si>
     <t>R0805</t>
   </si>
   <si>
-    <t>mouser part no</t>
-  </si>
-  <si>
     <t>mouser url</t>
   </si>
   <si>
-    <t>0.1μF</t>
-  </si>
-  <si>
     <t>1μF</t>
   </si>
   <si>
-    <t>47μF / 15V+</t>
-  </si>
-  <si>
     <t>PRQV8.00CR1510Y00L</t>
   </si>
   <si>
-    <t>80-C0402C104K3R7411</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/KEMET/C0402C104K3RAC7411/?qs=sGAEpiMZZMs0AnBnWHyRQHgARm9e77L7QzG%252bIDcfSShB%252bUEUo%2fYVXg%3d%3d</t>
-  </si>
-  <si>
     <t>80-C0402C105K4P</t>
   </si>
   <si>
     <t>https://hr.mouser.com/ProductDetail/KEMET/C0402C105K4PACTU/?qs=sGAEpiMZZMs0AnBnWHyRQJGXZSL2p4w0IWztnEtEgXr2QXa2ozRqtA%3d%3d</t>
   </si>
   <si>
-    <t>81-GRM21BR61A476ME5K</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Murata-Electronics/GRM21BR61A476ME15K/?qs=sGAEpiMZZMs0AnBnWHyRQFv7x1xn%252bYFd%2fKEbtsqpw9LjjzI%2fE2JjPg%3d%3d</t>
-  </si>
-  <si>
     <t xml:space="preserve">604-AM2520SURC03 </t>
   </si>
   <si>
@@ -370,24 +319,6 @@
     <t>https://hr.mouser.com/ProductDetail/71-WSL2010R1500FEA18</t>
   </si>
   <si>
-    <t xml:space="preserve">859-LTST-C170KRKT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C170KRKT </t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Lite-On/LTST-C170KRKT?qs=sGAEpiMZZMseGfSY3csMka0RJUIx3RG46z4ggiNq504%3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C170KGKT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">859-LTST-C170KGKT </t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Lite-On/LTST-C170KGKT?qs=sGAEpiMZZMseGfSY3csMkZOVB0V%252beuuF%2fTa1KhJyNck%3d</t>
-  </si>
-  <si>
     <t>white led</t>
   </si>
   <si>
@@ -401,13 +332,85 @@
   </si>
   <si>
     <t>https://hr.mouser.com/ProductDetail/941-XMLBWT0000U20E2</t>
+  </si>
+  <si>
+    <t>100μF</t>
+  </si>
+  <si>
+    <t>C-EUC1206</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>CRTL</t>
+  </si>
+  <si>
+    <t>SMD-SWITCH-TACTILE-SPST-NO(4P-D6.0MM)</t>
+  </si>
+  <si>
+    <t>SW4-SMD-6.0X6.0X5.0MM</t>
+  </si>
+  <si>
+    <t>APHBM2012LSURKZGKC</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>mouser part no.</t>
+  </si>
+  <si>
+    <t>47μF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-C3216JB1A107M16C </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/810-C3216JB1A107M16C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-C2012X5R0G476M </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/TDK/C2012X5R0G476M125AB?qs=dfay7wIA1uFRcC%252b5Gy6MmQ%3d%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">926-38693SD-5.0/NOPB </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/926-38693SD-5.0-NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538-503480-0600 </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/538-503480-0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APHBM2012LSURKZG </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/604-APHBM2012LSURKZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612-TL3305CF160QG </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/612-TL3305CF160QG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +573,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -913,18 +931,29 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1268,833 +1297,748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5034800600</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5034800600</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="8">
+        <v>311020004</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8">
+        <v>330</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8">
+        <v>330</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="8">
+        <v>330</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>330</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27">
-        <v>330</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29">
-        <v>330</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:G31">
+    <sortCondition ref="F2:F31"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I8" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="I6" r:id="rId6"/>
-    <hyperlink ref="I7" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I14" r:id="rId12"/>
-    <hyperlink ref="I16" r:id="rId13"/>
-    <hyperlink ref="I17" r:id="rId14"/>
-    <hyperlink ref="I21" r:id="rId15"/>
-    <hyperlink ref="I22" r:id="rId16"/>
-    <hyperlink ref="I23" r:id="rId17"/>
-    <hyperlink ref="I24" r:id="rId18"/>
-    <hyperlink ref="I25" r:id="rId19"/>
-    <hyperlink ref="I28" r:id="rId20"/>
-    <hyperlink ref="I30" r:id="rId21"/>
-    <hyperlink ref="I31" r:id="rId22"/>
-    <hyperlink ref="I33" r:id="rId23"/>
-    <hyperlink ref="I26" r:id="rId24"/>
-    <hyperlink ref="I27" r:id="rId25"/>
-    <hyperlink ref="I29" r:id="rId26"/>
-    <hyperlink ref="I34" r:id="rId27"/>
-    <hyperlink ref="I18" r:id="rId28"/>
-    <hyperlink ref="I32" r:id="rId29"/>
-    <hyperlink ref="I19" r:id="rId30"/>
-    <hyperlink ref="I20" r:id="rId31"/>
-    <hyperlink ref="I35" r:id="rId32"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G23" r:id="rId3"/>
+    <hyperlink ref="G24" r:id="rId4"/>
+    <hyperlink ref="G25" r:id="rId5"/>
+    <hyperlink ref="G28" r:id="rId6"/>
+    <hyperlink ref="G26" r:id="rId7"/>
+    <hyperlink ref="G27" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId10"/>
+    <hyperlink ref="G30" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="G20" r:id="rId13"/>
+    <hyperlink ref="G2" r:id="rId14"/>
+    <hyperlink ref="G22" r:id="rId15"/>
+    <hyperlink ref="G14" r:id="rId16"/>
+    <hyperlink ref="G15" r:id="rId17"/>
+    <hyperlink ref="G16" r:id="rId18"/>
+    <hyperlink ref="G17" r:id="rId19"/>
+    <hyperlink ref="G18" r:id="rId20"/>
+    <hyperlink ref="G19" r:id="rId21"/>
+    <hyperlink ref="G11" r:id="rId22"/>
+    <hyperlink ref="G12" r:id="rId23"/>
+    <hyperlink ref="G13" r:id="rId24"/>
+    <hyperlink ref="G10" r:id="rId25"/>
+    <hyperlink ref="G21" r:id="rId26"/>
+    <hyperlink ref="G29" r:id="rId27"/>
+    <hyperlink ref="G31" r:id="rId28"/>
+    <hyperlink ref="G8" r:id="rId29"/>
+    <hyperlink ref="G9" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MJ808 clone - all driver- POC - BOM.xlsx
+++ b/MJ808 clone - all driver- POC - BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>Part</t>
   </si>
@@ -253,12 +253,6 @@
     <t>https://hr.mouser.com/ProductDetail/KEMET/C0402C105K4PACTU/?qs=sGAEpiMZZMs0AnBnWHyRQJGXZSL2p4w0IWztnEtEgXr2QXa2ozRqtA%3d%3d</t>
   </si>
   <si>
-    <t xml:space="preserve">604-AM2520SURC03 </t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/604-AM2520SURC03</t>
-  </si>
-  <si>
     <t>581-PRQV8.00CR1510Y</t>
   </si>
   <si>
@@ -404,6 +398,18 @@
   </si>
   <si>
     <t>https://hr.mouser.com/ProductDetail/612-TL3305CF160QG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556-ATTINY4313-MMHR </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/556-ATTINY4313-MMHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-PMEG2010ER115 </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/Nexperia/PMEG2010ER115?qs=%2fha2pyFaduiWO3i5eIlfQWEwBcBz4vns6cjIVfREp8qIF%2fTo2tcnsg%3d%3d</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>74</v>
@@ -1340,418 +1346,415 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="8">
-        <v>5034800600</v>
-      </c>
-      <c r="C2" s="8">
-        <v>5034800600</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>125</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>106</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>116</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="8">
-        <v>311020004</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="8">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8">
-        <v>330</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8">
-        <v>330</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="8">
-        <v>330</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5034800600</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5034800600</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+      <c r="E16" s="8">
+        <v>311020004</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1771,274 +1774,275 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="B22" s="8">
+        <v>120</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="8">
+        <v>330</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B25" s="8">
+        <v>330</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="8">
+        <v>330</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>119</v>
+        <v>89</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G31">
-    <sortCondition ref="F2:F31"/>
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G23" r:id="rId3"/>
-    <hyperlink ref="G24" r:id="rId4"/>
-    <hyperlink ref="G25" r:id="rId5"/>
-    <hyperlink ref="G28" r:id="rId6"/>
-    <hyperlink ref="G26" r:id="rId7"/>
-    <hyperlink ref="G27" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="G30" r:id="rId11"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="G20" r:id="rId13"/>
-    <hyperlink ref="G2" r:id="rId14"/>
-    <hyperlink ref="G22" r:id="rId15"/>
-    <hyperlink ref="G14" r:id="rId16"/>
-    <hyperlink ref="G15" r:id="rId17"/>
-    <hyperlink ref="G16" r:id="rId18"/>
-    <hyperlink ref="G17" r:id="rId19"/>
-    <hyperlink ref="G18" r:id="rId20"/>
-    <hyperlink ref="G19" r:id="rId21"/>
-    <hyperlink ref="G11" r:id="rId22"/>
-    <hyperlink ref="G12" r:id="rId23"/>
-    <hyperlink ref="G13" r:id="rId24"/>
-    <hyperlink ref="G10" r:id="rId25"/>
-    <hyperlink ref="G21" r:id="rId26"/>
-    <hyperlink ref="G29" r:id="rId27"/>
-    <hyperlink ref="G31" r:id="rId28"/>
-    <hyperlink ref="G8" r:id="rId29"/>
-    <hyperlink ref="G9" r:id="rId30"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="G15" r:id="rId12"/>
+    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G23" r:id="rId15"/>
+    <hyperlink ref="G26" r:id="rId16"/>
+    <hyperlink ref="G28" r:id="rId17"/>
+    <hyperlink ref="G29" r:id="rId18"/>
+    <hyperlink ref="G30" r:id="rId19"/>
+    <hyperlink ref="G24" r:id="rId20"/>
+    <hyperlink ref="G25" r:id="rId21"/>
+    <hyperlink ref="G27" r:id="rId22"/>
+    <hyperlink ref="G22" r:id="rId23"/>
+    <hyperlink ref="G21" r:id="rId24"/>
+    <hyperlink ref="G17" r:id="rId25"/>
+    <hyperlink ref="G31" r:id="rId26"/>
+    <hyperlink ref="G18" r:id="rId27"/>
+    <hyperlink ref="G16" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MJ808 clone - all driver- POC - BOM.xlsx
+++ b/MJ808 clone - all driver- POC - BOM.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="16128" windowHeight="6468"/>
+    <workbookView xWindow="90" yWindow="15" windowWidth="16125" windowHeight="6465"/>
   </bookViews>
   <sheets>
-    <sheet name="MJ808 clone - all driver- POC" sheetId="2" r:id="rId1"/>
+    <sheet name="MJ808 clone - all driver- POC" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
-  <si>
-    <t>Part</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
   <si>
     <t>Value</t>
   </si>
@@ -31,9 +28,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C-EUC0402</t>
   </si>
   <si>
@@ -43,21 +37,9 @@
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>C-EUC0805</t>
   </si>
   <si>
@@ -103,18 +85,6 @@
     <t>IC3</t>
   </si>
   <si>
-    <t>LP38693SD-5.0/NOPB</t>
-  </si>
-  <si>
-    <t>LP38693</t>
-  </si>
-  <si>
-    <t>WSON6</t>
-  </si>
-  <si>
-    <t>IC4</t>
-  </si>
-  <si>
     <t>MCP2515</t>
   </si>
   <si>
@@ -145,9 +115,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t xml:space="preserve">VLS6045EX-150M-CA </t>
-  </si>
-  <si>
     <t>INDUCTOR-SRN6045-33UH</t>
   </si>
   <si>
@@ -160,27 +127,9 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>CHIP-LED0805</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>PMV213SN,215</t>
-  </si>
-  <si>
-    <t>MOSFET-NREFLOW</t>
-  </si>
-  <si>
-    <t>SOT23</t>
-  </si>
-  <si>
-    <t>N-Channel Mosfet</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -193,30 +142,6 @@
     <t>RESISTOR, European symbol</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
@@ -277,24 +202,12 @@
     <t>https://hr.mouser.com/ProductDetail/Maxim-Integrated/MAX16820ATT+T/?qs=sGAEpiMZZMvbyeSUH4qH%2fN7%252bvOhTKvVu</t>
   </si>
   <si>
-    <t>771-PMV213SN215</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Nexperia/PMV213SN215/?qs=%2fha2pyFadujz66NIxC8ncSxAIfNb7DfqCU5GgpDBFf1vdDFywJnUTA%3d%3d</t>
-  </si>
-  <si>
     <t>667-ERJ-PA2J103X</t>
   </si>
   <si>
     <t>https://hr.mouser.com/ProductDetail/Panasonic/ERJ-PA2J103X/?qs=sGAEpiMZZMvdGkrng054twEmCE4Hl1aVwYY3whshWPdEaZIYFtkXIA%3d%3d</t>
   </si>
   <si>
-    <t>667-ERJ-PA2F3300X</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Panasonic/ERJ-PA2F3300X/?qs=h9NfwcE6J0Jk%252blHKFtsGZw%3d%3d</t>
-  </si>
-  <si>
     <t>667-ERJ-P6WF1200V</t>
   </si>
   <si>
@@ -313,15 +226,9 @@
     <t>https://hr.mouser.com/ProductDetail/71-WSL2010R1500FEA18</t>
   </si>
   <si>
-    <t>white led</t>
-  </si>
-  <si>
     <t xml:space="preserve">XMLBWT-00-0000-0000U20E2 </t>
   </si>
   <si>
-    <t>custom</t>
-  </si>
-  <si>
     <t xml:space="preserve">941-XMLBWT0000U20E2 </t>
   </si>
   <si>
@@ -337,9 +244,6 @@
     <t>C1206</t>
   </si>
   <si>
-    <t>ICSP</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -376,12 +280,6 @@
     <t>https://hr.mouser.com/ProductDetail/TDK/C2012X5R0G476M125AB?qs=dfay7wIA1uFRcC%252b5Gy6MmQ%3d%3d</t>
   </si>
   <si>
-    <t xml:space="preserve">926-38693SD-5.0/NOPB </t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/926-38693SD-5.0-NOPB</t>
-  </si>
-  <si>
     <t xml:space="preserve">538-503480-0600 </t>
   </si>
   <si>
@@ -394,12 +292,6 @@
     <t>https://hr.mouser.com/ProductDetail/604-APHBM2012LSURKZG</t>
   </si>
   <si>
-    <t xml:space="preserve">612-TL3305CF160QG </t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/612-TL3305CF160QG</t>
-  </si>
-  <si>
     <t xml:space="preserve">556-ATTINY4313-MMHR </t>
   </si>
   <si>
@@ -410,13 +302,136 @@
   </si>
   <si>
     <t>https://hr.mouser.com/ProductDetail/Nexperia/PMEG2010ER115?qs=%2fha2pyFaduiWO3i5eIlfQWEwBcBz4vns6cjIVfREp8qIF%2fTo2tcnsg%3d%3d</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>22-23-2021</t>
+  </si>
+  <si>
+    <t>.100 (2.54mm) Center Header - 2 Pin"</t>
+  </si>
+  <si>
+    <t>IC7</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>SOT-89</t>
+  </si>
+  <si>
+    <t>VLS6045EX-150M-CA - 15uH</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>SiA456DJ</t>
+  </si>
+  <si>
+    <t>SIA456DJ</t>
+  </si>
+  <si>
+    <t>SC-70-6</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>741X083331JP 330R</t>
+  </si>
+  <si>
+    <t>741X083331JP</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>741X083103JP 10k</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>TPB2,54</t>
+  </si>
+  <si>
+    <t>B2,54</t>
+  </si>
+  <si>
+    <t>Test pad</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>R1, R2, R7</t>
+  </si>
+  <si>
+    <t>C1, C2, C5</t>
+  </si>
+  <si>
+    <t>C4, C6</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781-SIA456DJ-T1-GE3 </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/781-SIA456DJ-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774-741X083103JP </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/774-741X083103JP</t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/774-741X083331JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774-741X083331JP </t>
+  </si>
+  <si>
+    <t>LDK320ADU50R</t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/511-LDK320ADU50R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-LDK320ADU50R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">612-TL3301SP-260 </t>
+  </si>
+  <si>
+    <t>https://hr.mouser.com/ProductDetail/E-Switch/TL3301SPF260QG?qs=sGAEpiMZZMsgGjVA3toVBP53Dp5cewQPQIMfX02H%2Fow%3D</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +604,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -937,29 +959,24 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,7 +1108,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1126,7 +1142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1302,747 +1317,687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5034800600</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5034800600</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>402</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>311020004</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="8">
-        <v>5034800600</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5034800600</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="8">
-        <v>311020004</v>
-      </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="8">
-        <v>120</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="H26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="8">
-        <v>330</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="8">
-        <v>330</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="8">
-        <v>330</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>103</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G31">
-    <sortCondition ref="A2:A31"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="G5" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G11" r:id="rId8"/>
-    <hyperlink ref="G12" r:id="rId9"/>
-    <hyperlink ref="G13" r:id="rId10"/>
-    <hyperlink ref="G14" r:id="rId11"/>
-    <hyperlink ref="G15" r:id="rId12"/>
-    <hyperlink ref="G19" r:id="rId13"/>
-    <hyperlink ref="G20" r:id="rId14"/>
-    <hyperlink ref="G23" r:id="rId15"/>
-    <hyperlink ref="G26" r:id="rId16"/>
-    <hyperlink ref="G28" r:id="rId17"/>
-    <hyperlink ref="G29" r:id="rId18"/>
-    <hyperlink ref="G30" r:id="rId19"/>
-    <hyperlink ref="G24" r:id="rId20"/>
-    <hyperlink ref="G25" r:id="rId21"/>
-    <hyperlink ref="G27" r:id="rId22"/>
-    <hyperlink ref="G22" r:id="rId23"/>
-    <hyperlink ref="G21" r:id="rId24"/>
-    <hyperlink ref="G17" r:id="rId25"/>
-    <hyperlink ref="G31" r:id="rId26"/>
-    <hyperlink ref="G18" r:id="rId27"/>
-    <hyperlink ref="G16" r:id="rId28"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H18" r:id="rId4"/>
+    <hyperlink ref="H21" r:id="rId5"/>
+    <hyperlink ref="H24" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+    <hyperlink ref="H25" r:id="rId10"/>
+    <hyperlink ref="H6" r:id="rId11"/>
+    <hyperlink ref="H26" r:id="rId12"/>
+    <hyperlink ref="H9" r:id="rId13"/>
+    <hyperlink ref="H22" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+    <hyperlink ref="H11" r:id="rId16"/>
+    <hyperlink ref="H2" r:id="rId17"/>
+    <hyperlink ref="H5" r:id="rId18"/>
+    <hyperlink ref="H15" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
